--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/수도권 거래처 리스트.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/수도권 거래처 리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbut\Desktop\예제\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\4. 필터정렬\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EBBAC7-F34B-42CF-A3C9-846A085BA727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8495FDA-E0B2-4F35-90EB-5A346158874A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22536" yWindow="3480" windowWidth="21180" windowHeight="16692" xr2:uid="{75A22ECF-2516-4789-A34F-71645EF19CB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{75A22ECF-2516-4789-A34F-71645EF19CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -795,25 +795,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57654E01-95DA-48F6-AC9A-872C725D7041}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:M36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="26.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="2"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="32.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -822,7 +823,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="4" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -839,7 +840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -854,7 +855,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -869,7 +870,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
@@ -884,7 +885,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -899,7 +900,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -914,7 +915,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
@@ -929,7 +930,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
@@ -944,7 +945,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
@@ -959,7 +960,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
@@ -974,7 +975,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
@@ -989,7 +990,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>50</v>
       </c>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1034,7 +1035,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" s="2" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>58</v>
       </c>
@@ -1049,7 +1050,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>62</v>
       </c>
@@ -1064,7 +1065,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>64</v>
       </c>
@@ -1079,37 +1080,45 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M36" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="B4:F20" xr:uid="{57654E01-95DA-48F6-AC9A-872C725D7041}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*서울특별시*"/>
+        <customFilter val="*경기도*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
